--- a/02_MasterWifoMannheim/99_Backup/Course158.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course158.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D369A3B9231159B568F27383FEFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F15B0B-0264-4610-8AE3-AC66A45FEEB1}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 561 Production Management: Lean Approaches and Variability</t>
-  </si>
-  <si>
-    <t>C Tontents</t>
-  </si>
-  <si>
-    <t>To match supply/capacity with demand, managers and planners have to consider different types of variability. We discuss sources for three dimensions of variability and analyze the effects on several operational performance measures. This course introduces planning tasks for the design and management of operations systems from the strategic to the operational level. The first part of the course deals with a classification of production systems and the characterization of design problems for flow production systems. The second part of the course covers control and scheduling decisions. o manage and reduce variability we introduce classical approaches from lean management as well as modern business analytics tools. This course aims to provide insights into the key decisions regarding the design and management of lean production systems. purpose, quantitative models for the performance analysis and optimization are discussed. Selected problems are implemented and solved using standard software for business analytics.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Student will  develop skills for quantitative planning in the field of production management,  have an overview of requirements, objectives and key concepts in lean production management, and  understand reasons and effects of variability in operations management</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Raik Stolletz</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 561 Production Management: Lean Approaches and Variability</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C Tontents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>To match supply/capacity with demand, managers and planners have to consider different types of variability. We discuss sources for three dimensions of variability and analyze the effects on several operational performance measures. This course introduces planning tasks for the design and management of operations systems from the strategic to the operational level. The first part of the course deals with a classification of production systems and the characterization of design problems for flow production systems. The second part of the course covers control and scheduling decisions. o manage and reduce variability we introduce classical approaches from lean management as well as modern business analytics tools. This course aims to provide insights into the key decisions regarding the design and management of lean production systems. purpose, quantitative models for the performance analysis and optimization are discussed. Selected problems are implemented and solved using standard software for business analytics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Student will  develop skills for quantitative planning in the field of production management,  have an overview of requirements, objectives and key concepts in lean production management, and  understand reasons and effects of variability in operations management</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Raik Stolletz</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
